--- a/customer/Min Khant_Customer_Home.xlsx
+++ b/customer/Min Khant_Customer_Home.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_C0E503B97EA5B81E52925F3AE7E6F4351281B613" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E81B2C-EB87-42B2-A0AB-4EE7491349C2}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="11_C0E503B97EA5B81E52925F3AE7E6F4351281B613" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F78479-4962-455D-A464-BA7859928617}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8016" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8016" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 単体試験</t>
   </si>
   <si>
-    <t>Food Lab</t>
+    <t>Food Lab(Customer)</t>
   </si>
   <si>
     <t>Create Date</t>
@@ -1331,15 +1331,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1352,6 +1358,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1370,44 +1415,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1430,12 +1442,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1460,6 +1466,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1490,22 +1514,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1514,44 +1550,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C26"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1920,57 +1920,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="78">
+      <c r="P2" s="70">
         <v>44501</v>
       </c>
-      <c r="Q2" s="79"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="72">
         <v>44501</v>
       </c>
-      <c r="Q3" s="81"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
@@ -1998,24 +1998,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
@@ -2034,22 +2034,22 @@
       <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" ht="19.5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="31" t="s">
         <v>16</v>
       </c>
@@ -2071,21 +2071,21 @@
       <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="59"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="20" t="s">
         <v>23</v>
       </c>
@@ -2101,21 +2101,21 @@
       <c r="A8" s="53">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="59"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2131,21 +2131,21 @@
       <c r="A9" s="53">
         <v>3</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="59"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="20" t="s">
         <v>23</v>
       </c>
@@ -2161,21 +2161,21 @@
       <c r="A10" s="53">
         <v>4</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="59"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="20" t="s">
         <v>23</v>
       </c>
@@ -2191,21 +2191,21 @@
       <c r="A11" s="53">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="59"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="20" t="s">
         <v>23</v>
       </c>
@@ -2221,21 +2221,21 @@
       <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="20" t="s">
         <v>23</v>
       </c>
@@ -2251,21 +2251,21 @@
       <c r="A13" s="53">
         <v>7</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="59"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2281,21 +2281,21 @@
       <c r="A14" s="53">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="20" t="s">
         <v>23</v>
       </c>
@@ -2311,21 +2311,21 @@
       <c r="A15" s="53">
         <v>9</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="59"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="20" t="s">
         <v>23</v>
       </c>
@@ -2341,21 +2341,21 @@
       <c r="A16" s="53">
         <v>10</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="59"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="20" t="s">
         <v>23</v>
       </c>
@@ -2371,21 +2371,21 @@
       <c r="A17" s="53">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="59"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="20" t="s">
         <v>23</v>
       </c>
@@ -2401,21 +2401,21 @@
       <c r="A18" s="53">
         <v>12</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="20" t="s">
         <v>23</v>
       </c>
@@ -2431,21 +2431,21 @@
       <c r="A19" s="53">
         <v>13</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="59"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="20" t="s">
         <v>23</v>
       </c>
@@ -2461,21 +2461,21 @@
       <c r="A20" s="53">
         <v>14</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="20" t="s">
         <v>23</v>
       </c>
@@ -2491,21 +2491,21 @@
       <c r="A21" s="53">
         <v>15</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="59"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="20" t="s">
         <v>23</v>
       </c>
@@ -2521,21 +2521,21 @@
       <c r="A22" s="53">
         <v>16</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="20" t="s">
         <v>23</v>
       </c>
@@ -2551,21 +2551,21 @@
       <c r="A23" s="53">
         <v>17</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="58" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="59"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="20" t="s">
         <v>23</v>
       </c>
@@ -2581,21 +2581,21 @@
       <c r="A24" s="53">
         <v>18</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="59"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="20" t="s">
         <v>23</v>
       </c>
@@ -2611,21 +2611,21 @@
       <c r="A25" s="53">
         <v>19</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="59"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="20" t="s">
         <v>23</v>
       </c>
@@ -2638,22 +2638,24 @@
       <c r="R25" s="44"/>
     </row>
     <row r="26" spans="1:18" s="37" customFormat="1" ht="19.5">
-      <c r="A26" s="53"/>
-      <c r="B26" s="130" t="s">
+      <c r="A26" s="53">
+        <v>20</v>
+      </c>
+      <c r="B26" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="59"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="20"/>
       <c r="N26" s="11"/>
       <c r="O26" s="52"/>
@@ -2663,23 +2665,23 @@
     </row>
     <row r="27" spans="1:18" ht="86.45" customHeight="1">
       <c r="A27" s="53">
-        <v>20</v>
-      </c>
-      <c r="B27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="20" t="s">
         <v>23</v>
       </c>
@@ -2693,23 +2695,23 @@
     </row>
     <row r="28" spans="1:18" ht="86.45" customHeight="1">
       <c r="A28" s="53">
-        <v>21</v>
-      </c>
-      <c r="B28" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="68" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="20" t="s">
         <v>23</v>
       </c>
@@ -2723,23 +2725,23 @@
     </row>
     <row r="29" spans="1:18" ht="86.45" customHeight="1">
       <c r="A29" s="53">
-        <v>22</v>
-      </c>
-      <c r="B29" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="71" t="s">
+      <c r="C29" s="66"/>
+      <c r="D29" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="20" t="s">
         <v>23</v>
       </c>
@@ -2753,23 +2755,23 @@
     </row>
     <row r="30" spans="1:18" ht="86.45" customHeight="1">
       <c r="A30" s="53">
-        <v>23</v>
-      </c>
-      <c r="B30" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="71" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="20" t="s">
         <v>23</v>
       </c>
@@ -2783,23 +2785,23 @@
     </row>
     <row r="31" spans="1:18" ht="86.45" customHeight="1">
       <c r="A31" s="53">
-        <v>24</v>
-      </c>
-      <c r="B31" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="71" t="s">
+      <c r="C31" s="66"/>
+      <c r="D31" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="20" t="s">
         <v>23</v>
       </c>
@@ -2813,23 +2815,23 @@
     </row>
     <row r="32" spans="1:18" ht="86.45" customHeight="1">
       <c r="A32" s="53">
-        <v>25</v>
-      </c>
-      <c r="B32" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="71" t="s">
+      <c r="C32" s="66"/>
+      <c r="D32" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="20" t="s">
         <v>23</v>
       </c>
@@ -2843,23 +2845,23 @@
     </row>
     <row r="33" spans="1:18" ht="86.45" customHeight="1">
       <c r="A33" s="53">
-        <v>26</v>
-      </c>
-      <c r="B33" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
       <c r="M33" s="20" t="s">
         <v>23</v>
       </c>
@@ -2873,23 +2875,23 @@
     </row>
     <row r="34" spans="1:18" ht="86.45" customHeight="1">
       <c r="A34" s="53">
-        <v>27</v>
-      </c>
-      <c r="B34" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="20" t="s">
         <v>23</v>
       </c>
@@ -2903,23 +2905,23 @@
     </row>
     <row r="35" spans="1:18" ht="86.45" customHeight="1">
       <c r="A35" s="53">
-        <v>28</v>
-      </c>
-      <c r="B35" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65" t="s">
+      <c r="C35" s="66"/>
+      <c r="D35" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="20" t="s">
         <v>23</v>
       </c>
@@ -2933,23 +2935,23 @@
     </row>
     <row r="36" spans="1:18" ht="46.15" customHeight="1">
       <c r="A36" s="53">
-        <v>29</v>
-      </c>
-      <c r="B36" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
       <c r="M36" s="20" t="s">
         <v>23</v>
       </c>
@@ -2963,23 +2965,23 @@
     </row>
     <row r="37" spans="1:18" ht="42" customHeight="1">
       <c r="A37" s="53">
-        <v>30</v>
-      </c>
-      <c r="B37" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
       <c r="M37" s="20" t="s">
         <v>23</v>
       </c>
@@ -2993,23 +2995,23 @@
     </row>
     <row r="38" spans="1:18" ht="46.15" customHeight="1">
       <c r="A38" s="53">
-        <v>31</v>
-      </c>
-      <c r="B38" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
       <c r="M38" s="20" t="s">
         <v>23</v>
       </c>
@@ -3023,23 +3025,23 @@
     </row>
     <row r="39" spans="1:18" ht="46.15" customHeight="1">
       <c r="A39" s="53">
-        <v>32</v>
-      </c>
-      <c r="B39" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
       <c r="M39" s="20" t="s">
         <v>23</v>
       </c>
@@ -3053,23 +3055,23 @@
     </row>
     <row r="40" spans="1:18" ht="43.9" customHeight="1">
       <c r="A40" s="53">
-        <v>33</v>
-      </c>
-      <c r="B40" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62" t="s">
+      <c r="C40" s="63"/>
+      <c r="D40" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
       <c r="M40" s="20" t="s">
         <v>23</v>
       </c>
@@ -3083,23 +3085,23 @@
     </row>
     <row r="41" spans="1:18" ht="40.9" customHeight="1">
       <c r="A41" s="53">
-        <v>34</v>
-      </c>
-      <c r="B41" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="63"/>
+      <c r="D41" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
       <c r="M41" s="20" t="s">
         <v>23</v>
       </c>
@@ -3113,23 +3115,23 @@
     </row>
     <row r="42" spans="1:18" ht="43.15" customHeight="1">
       <c r="A42" s="53">
-        <v>35</v>
-      </c>
-      <c r="B42" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
       <c r="M42" s="20" t="s">
         <v>23</v>
       </c>
@@ -3143,23 +3145,23 @@
     </row>
     <row r="43" spans="1:18" ht="42.6" customHeight="1">
       <c r="A43" s="53">
-        <v>36</v>
-      </c>
-      <c r="B43" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
       <c r="M43" s="20" t="s">
         <v>23</v>
       </c>
@@ -3173,23 +3175,23 @@
     </row>
     <row r="44" spans="1:18" ht="43.15" customHeight="1">
       <c r="A44" s="53">
-        <v>37</v>
-      </c>
-      <c r="B44" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
       <c r="M44" s="20" t="s">
         <v>23</v>
       </c>
@@ -3203,23 +3205,23 @@
     </row>
     <row r="45" spans="1:18" ht="43.9" customHeight="1">
       <c r="A45" s="53">
-        <v>38</v>
-      </c>
-      <c r="B45" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
       <c r="M45" s="20" t="s">
         <v>23</v>
       </c>
@@ -3233,23 +3235,23 @@
     </row>
     <row r="46" spans="1:18" ht="41.45" customHeight="1">
       <c r="A46" s="53">
-        <v>39</v>
-      </c>
-      <c r="B46" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
       <c r="M46" s="20" t="s">
         <v>23</v>
       </c>
@@ -3263,23 +3265,23 @@
     </row>
     <row r="47" spans="1:18" ht="46.15" customHeight="1">
       <c r="A47" s="53">
-        <v>40</v>
-      </c>
-      <c r="B47" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="63"/>
+      <c r="D47" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="20" t="s">
         <v>23</v>
       </c>
@@ -3293,6 +3295,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:L44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:L26"/>
     <mergeCell ref="B7:C7"/>
@@ -3309,81 +3386,6 @@
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:L44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -3407,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:N9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -3423,57 +3425,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91">
+      <c r="P2" s="86">
         <v>44501</v>
       </c>
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="87"/>
       <c r="R2" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="72">
         <v>44501</v>
       </c>
-      <c r="Q3" s="81"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
@@ -3501,24 +3503,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
@@ -3537,22 +3539,22 @@
       <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" ht="19.899999999999999">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="31" t="s">
         <v>16</v>
       </c>
@@ -3575,21 +3577,21 @@
         <f t="shared" ref="A7:A11" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="20" t="s">
         <v>23</v>
       </c>
@@ -3606,21 +3608,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="20" t="s">
         <v>23</v>
       </c>
@@ -3637,21 +3639,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="64"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="20" t="s">
         <v>23</v>
       </c>
@@ -3668,21 +3670,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="20" t="s">
         <v>23</v>
       </c>
@@ -3699,21 +3701,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="20" t="s">
         <v>23</v>
       </c>
@@ -3728,13 +3730,6 @@
     <row r="12" spans="1:18" ht="15"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="B9:C9"/>
@@ -3747,6 +3742,13 @@
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3761,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.899999999999999"/>
@@ -3779,57 +3781,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="42" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91">
+      <c r="P2" s="86">
         <v>44501</v>
       </c>
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="87"/>
       <c r="R2" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="42" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="91">
+      <c r="P3" s="86">
         <v>44501</v>
       </c>
-      <c r="Q3" s="92"/>
+      <c r="Q3" s="87"/>
       <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
@@ -3844,24 +3846,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="42" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
@@ -3880,22 +3882,22 @@
       <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" s="42" customFormat="1" ht="19.5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="31" t="s">
         <v>16</v>
       </c>
@@ -3917,21 +3919,21 @@
       <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="20" t="s">
         <v>23</v>
       </c>
@@ -3947,21 +3949,21 @@
       <c r="A8" s="53">
         <v>2</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="20" t="s">
         <v>23</v>
       </c>
@@ -3977,21 +3979,21 @@
       <c r="A9" s="53">
         <v>3</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="20" t="s">
         <v>23</v>
       </c>
@@ -4007,21 +4009,21 @@
       <c r="A10" s="53">
         <v>4</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="20" t="s">
         <v>23</v>
       </c>
@@ -4036,21 +4038,21 @@
       <c r="A11" s="53">
         <v>5</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="20" t="s">
         <v>23</v>
       </c>
@@ -4065,21 +4067,21 @@
       <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="20" t="s">
         <v>23</v>
       </c>
@@ -4094,21 +4096,21 @@
       <c r="A13" s="53">
         <v>7</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="64"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="20" t="s">
         <v>23</v>
       </c>
@@ -4123,21 +4125,21 @@
       <c r="A14" s="53">
         <v>8</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="20" t="s">
         <v>23</v>
       </c>
@@ -4152,21 +4154,21 @@
       <c r="A15" s="53">
         <v>9</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="20" t="s">
         <v>23</v>
       </c>
@@ -4181,21 +4183,21 @@
       <c r="A16" s="53">
         <v>10</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="20" t="s">
         <v>23</v>
       </c>
@@ -4210,21 +4212,21 @@
       <c r="A17" s="53">
         <v>11</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="20" t="s">
         <v>23</v>
       </c>
@@ -4239,12 +4241,21 @@
     <row r="19" spans="1:17" ht="19.5"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="B7:C7"/>
@@ -4255,21 +4266,12 @@
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -4285,7 +4287,7 @@
   <dimension ref="A2:R8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:L7"/>
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4300,57 +4302,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="78">
+      <c r="P2" s="70">
         <v>44501</v>
       </c>
-      <c r="Q2" s="79"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="72">
         <v>44501</v>
       </c>
-      <c r="Q3" s="81"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="41" t="s">
         <v>5</v>
       </c>
@@ -4378,24 +4380,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
@@ -4414,22 +4416,22 @@
       <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" ht="19.899999999999999">
-      <c r="A6" s="99"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="31" t="s">
         <v>16</v>
       </c>
@@ -4452,21 +4454,21 @@
         <f t="shared" ref="A7:A8" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="20" t="s">
         <v>23</v>
       </c>
@@ -4483,21 +4485,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="20" t="s">
         <v>23</v>
       </c>
@@ -4511,6 +4513,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A5:A6"/>
@@ -4518,12 +4526,6 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -4538,7 +4540,7 @@
   <dimension ref="A2:R8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4554,57 +4556,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="78">
+      <c r="P2" s="70">
         <v>44501</v>
       </c>
-      <c r="Q2" s="79"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="72">
         <v>44501</v>
       </c>
-      <c r="Q3" s="81"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="41" t="s">
         <v>5</v>
       </c>
@@ -4632,24 +4634,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
@@ -4668,22 +4670,22 @@
       <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" ht="19.899999999999999">
-      <c r="A6" s="99"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="31" t="s">
         <v>16</v>
       </c>
@@ -4706,21 +4708,21 @@
         <f t="shared" ref="A7:A8" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="20" t="s">
         <v>23</v>
       </c>
@@ -4737,21 +4739,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="20" t="s">
         <v>23</v>
       </c>
@@ -4765,6 +4767,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A5:A6"/>
@@ -4772,12 +4780,6 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -4792,7 +4794,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="83" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4827,57 +4829,57 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="103">
         <v>44501</v>
       </c>
-      <c r="Q2" s="112"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
       <c r="O3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="113">
+      <c r="P3" s="105">
         <v>44501</v>
       </c>
-      <c r="Q3" s="114"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="48" t="s">
         <v>5</v>
       </c>
@@ -4905,24 +4907,24 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
       <c r="M5" s="32" t="s">
         <v>10</v>
       </c>
@@ -4941,22 +4943,22 @@
       <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" ht="19.899999999999999">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="32" t="s">
         <v>16</v>
       </c>
@@ -4979,21 +4981,21 @@
         <f t="shared" ref="A7:A8" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="25" t="s">
         <v>23</v>
       </c>
@@ -5010,21 +5012,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="25" t="s">
         <v>23</v>
       </c>
@@ -5038,6 +5040,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A5:A6"/>
@@ -5045,12 +5053,6 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -5064,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:R10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:L9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="19.899999999999999"/>
@@ -5086,7 +5088,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="119"/>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="121"/>
@@ -5183,21 +5185,21 @@
     </row>
     <row r="6" spans="1:18" s="35" customFormat="1">
       <c r="A6" s="127"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="32" t="s">
         <v>16</v>
       </c>
@@ -5220,21 +5222,21 @@
         <f t="shared" ref="A7:A9" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="10" t="s">
         <v>23</v>
       </c>
@@ -5250,21 +5252,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
       <c r="M8" s="10" t="s">
         <v>23</v>
       </c>
@@ -5280,21 +5282,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118" t="s">
+      <c r="C9" s="129"/>
+      <c r="D9" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
       <c r="M9" s="10" t="s">
         <v>23</v>
       </c>
@@ -5308,6 +5310,12 @@
     <row r="10" spans="1:18" ht="19.5"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -5317,12 +5325,6 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -5336,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:L9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -5353,17 +5355,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19.899999999999999">
       <c r="A1" s="4"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -5487,21 +5489,21 @@
     </row>
     <row r="6" spans="1:18" ht="19.899999999999999">
       <c r="A6" s="127"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="32" t="s">
         <v>16</v>
       </c>
@@ -5524,21 +5526,21 @@
         <f t="shared" ref="A7:A9" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="10" t="s">
         <v>23</v>
       </c>
@@ -5554,21 +5556,21 @@
       <c r="A8" s="57">
         <v>2</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
       <c r="M8" s="10" t="s">
         <v>23</v>
       </c>
@@ -5585,21 +5587,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118" t="s">
+      <c r="C9" s="129"/>
+      <c r="D9" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
       <c r="M9" s="10" t="s">
         <v>23</v>
       </c>
@@ -5614,23 +5616,23 @@
     <row r="10" spans="1:18" ht="15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
